--- a/biology/Médecine/Antidiabétique/Antidiabétique.xlsx
+++ b/biology/Médecine/Antidiabétique/Antidiabétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antidiab%C3%A9tique</t>
+          <t>Antidiabétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un médicament antidiabétique est un médicament utilisé pour traiter le diabète sucré. Les antidiabétiques agissent en général en abaissant la glycémie. Il y a différents types d'antidiabétiques, et leur utilisation dépend de la nature du diabète, du dosage de l'hémoglobine glyquée, de l'âge et de la situation de la personne, et de bien d'autres facteurs.
 Ainsi, dans le diabète de type 1, il n'y a pas de sécrétion physiologique d'insuline. L'administration d'insuline est donc la base du traitement et l'utilisation d'antidiabétiques oraux n'est pas indiquée.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antidiab%C3%A9tique</t>
+          <t>Antidiabétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Buts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le but des antidiabétiques est d'équilibrer la glycémie mais aussi de diminuer l'incidence des complications du diabète, notamment les microangiopathies (rétinopathie diabétique, néphropathie diabétique, etc.).
-Dans le cas du diabète de type 2, l'un des objectifs est de diminuer le risque de survenue d'une maladie cardiovasculaire[1]. La démonstration de l'efficacité des antidiabétiques oraux sur ce point est cependant loin d'être faite pour chaque molécules disponibles, notamment en raison de la nécessité d'avoir un recul de plusieurs années. La metformine[2], l'empagliflozine[3], le liraglutide[4] et le sémaglutide[5] répondent à ce critère.
+Dans le cas du diabète de type 2, l'un des objectifs est de diminuer le risque de survenue d'une maladie cardiovasculaire. La démonstration de l'efficacité des antidiabétiques oraux sur ce point est cependant loin d'être faite pour chaque molécules disponibles, notamment en raison de la nécessité d'avoir un recul de plusieurs années. La metformine, l'empagliflozine, le liraglutide et le sémaglutide répondent à ce critère.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antidiab%C3%A9tique</t>
+          <t>Antidiabétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +562,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insuline
-Analogues des incrétines
-Les analogues des incrétines ou analogues du GLP1 stimulent la sécrétion d'insuline lorsque la glycémie est trop élevée, notamment en post-prandial. Les molécules associées à cette classe sont l'exénatide, la sémaglutide et le liraglutide.
+          <t>Analogues des incrétines</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analogues des incrétines ou analogues du GLP1 stimulent la sécrétion d'insuline lorsque la glycémie est trop élevée, notamment en post-prandial. Les molécules associées à cette classe sont l'exénatide, la sémaglutide et le liraglutide.
 Ils ont l'avantage d'être administrés par voie sous-cutanée de façon hebdomadaire, et de ne causer ni d'hypoglycémie ni de prise de poids. Les effets secondaires sont principalement des troubles digestifs, et quelques rares cas d'insuffisance rénale.
-Tirzépatide
-Le tirzépatide a la double propriété d'être activateur du récepteur du GLP1 (comme les incrétines) et de celui du peptide insulinotrope dépendant du glucose (GIP). Il est cours de test par voie sous-cutanée
 </t>
         </is>
       </c>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Antidiab%C3%A9tique</t>
+          <t>Antidiabétique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,37 +595,356 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Antidiabétiques par voie sous-cutanée</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tirzépatide</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tirzépatide a la double propriété d'être activateur du récepteur du GLP1 (comme les incrétines) et de celui du peptide insulinotrope dépendant du glucose (GIP). Il est cours de test par voie sous-cutanée
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antidiabétique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antidiab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Antidiabétiques oraux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les antidiabétiques oraux (ADO) ne sont utilisés que dans le diabète de type 2 (non-insulino-dépendant), où ils peuvent être parfois (pas toujours) prescrits en association avec l'insuline.
 Ils peuvent être prescrits seuls, ou en association dans un seul comprimé.
-Biguanides
-Les Biguanides diminuent la néoglucogenèse hépatique et l'insulinorésistance de l'organisme. Il reste le médicament de première intention, permettant une diminution du risque de complications cardio-vasculaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antidiabétique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antidiab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Antidiabétiques oraux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biguanides</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Biguanides diminuent la néoglucogenèse hépatique et l'insulinorésistance de l'organisme. Il reste le médicament de première intention, permettant une diminution du risque de complications cardio-vasculaires.
 Plusieurs molécules sont comprises dans cette classe, dont la metformine, médicament de première intention dans le traitement du diabète non-insulino-dépendant. La phenformine (non utilisée) et la buformine (Suisse) ne sont guère utilisés
-Glitazones
-Les Glitazones (Thiazolidinediones) diminuent la résistance tissulaire à l’insuline. Ils sont utilisés en troisième intention dans le traitement du diabète de type 2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antidiabétique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antidiab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Antidiabétiques oraux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Glitazones</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Glitazones (Thiazolidinediones) diminuent la résistance tissulaire à l’insuline. Ils sont utilisés en troisième intention dans le traitement du diabète de type 2.
 Pioglitazone (Actos)
 rosiglitazone (Avandia) (retiré du marché en France)
 troglitazone (non utilisée)
 Leur utilisation avec un traitement à l'insuline peut augmenter le risque d'insuffisance cardiaque.
 Des études sont en cours pour mieux évaluer le rapport bénéfice/risques.
-Inhibiteurs de l'alpha-glucosidase
-Les inhibiteurs de l'alpha-glucosidase inhibent le dernier stade de la digestion des sucres. Ceux-ci ne pouvant être absorbés, continuent dans l'intestin et subissent la fermentation colique bactérienne en acides gras volatils ou sont éliminés dans les selles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Antidiabétique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antidiab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Antidiabétiques oraux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de l'alpha-glucosidase</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inhibiteurs de l'alpha-glucosidase inhibent le dernier stade de la digestion des sucres. Ceux-ci ne pouvant être absorbés, continuent dans l'intestin et subissent la fermentation colique bactérienne en acides gras volatils ou sont éliminés dans les selles.
 Cette classe d’antidiabétique est utilisée en complément des autres ou lors de contre-indication aux autres traitements. Les molécules appartenant à cette classe sont l'acarbose et le miglitol.
 Les effets secondaires sont essentiellement digestif digestifs (météorisme, flatulence, inconfort intestinal, diarrhée, ballonnement...) avec parfois des éruptions cutanées. Ils ont tendance à s'atténuer au cours du traitement.
-Glinides
-Les glinides (méglitinides) agissent  en augmentant la sécrétion d'insuline pancréatique. Les molécules associées à cette classe sont le répaglinide et le natéglinide
-Inhibiteurs de la dipeptidyl peptidase-4
-Ils inhibent la dipeptidyl peptidase-4 l'enzyme qui inactive l'incrétine. Ils sont appelés aussi sous le terme de gliptine. Les molécules de cette classe sont la sitagliptine, la vildagliptine et la saxagliptine.
-Glifozines
-Les inhibiteurs de la SGLT2, ou glifozines, empêchent la réabsorption du glucose par le tubule rénal. Plusieurs molécules appartiennent à cette classe : Canagliflozine, dapaglifozine, empagliflozine...
-Inhibiteurs de l'aldose réductase
-Les Inhibiteurs de l'aldose réductase préviennent les lésions oculaires et nerveuses chez les diabétiques on bloquant la synthèse du sorbitol par l'aldose réductase, un polyol à haut pouvoir osmotique auquel les membranes cellulaires ne sont pas très perméables.
-Sulfonylurées
-Ce sont les sulfamides hypoglycémiants ou sulfonylurées qui agissent en augmentant la sécrétion d'insuline par les cellules bêta du pancréas. Ils sont utilisés lorsque le régime alimentaire seul ne suffit pas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Antidiabétique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antidiab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Antidiabétiques oraux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Glinides</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les glinides (méglitinides) agissent  en augmentant la sécrétion d'insuline pancréatique. Les molécules associées à cette classe sont le répaglinide et le natéglinide
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Antidiabétique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antidiab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Antidiabétiques oraux</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de la dipeptidyl peptidase-4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils inhibent la dipeptidyl peptidase-4 l'enzyme qui inactive l'incrétine. Ils sont appelés aussi sous le terme de gliptine. Les molécules de cette classe sont la sitagliptine, la vildagliptine et la saxagliptine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Antidiabétique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antidiab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Antidiabétiques oraux</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Glifozines</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inhibiteurs de la SGLT2, ou glifozines, empêchent la réabsorption du glucose par le tubule rénal. Plusieurs molécules appartiennent à cette classe : Canagliflozine, dapaglifozine, empagliflozine...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Antidiabétique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antidiab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Antidiabétiques oraux</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de l'aldose réductase</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Inhibiteurs de l'aldose réductase préviennent les lésions oculaires et nerveuses chez les diabétiques on bloquant la synthèse du sorbitol par l'aldose réductase, un polyol à haut pouvoir osmotique auquel les membranes cellulaires ne sont pas très perméables.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Antidiabétique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antidiab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Antidiabétiques oraux</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sulfonylurées</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les sulfamides hypoglycémiants ou sulfonylurées qui agissent en augmentant la sécrétion d'insuline par les cellules bêta du pancréas. Ils sont utilisés lorsque le régime alimentaire seul ne suffit pas.
 Ils permettent de baisser les glycémies mais n'apportent pas de preuve d'un intérêt pour la prévention des complications du diabète. Leur emploi est en forte diminution avec l'apparition d'autres molécules.
 </t>
         </is>
